--- a/bin/testdata/t_pet.xlsx
+++ b/bin/testdata/t_pet.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\senle\svnrepo\gopath\src\xtool\main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\xtool\bin\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="48">
   <si>
     <t>int</t>
   </si>
@@ -192,10 +192,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>*id</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -205,13 +201,21 @@
   </si>
   <si>
     <t>花"花</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>#cat_miaomiao</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -326,7 +330,7 @@
         <xdr:cNvPr id="2" name="图片 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{664CC4CC-0EF9-45D6-8B1C-1404230C0CF1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{664CC4CC-0EF9-45D6-8B1C-1404230C0CF1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -635,7 +639,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -665,7 +669,7 @@
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>40</v>
@@ -673,7 +677,7 @@
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>16</v>
@@ -776,10 +780,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>44</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>45</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>26</v>
